--- a/OpeningEntry/CommonFolder/ConsolidatedCustomerOS.xlsx
+++ b/OpeningEntry/CommonFolder/ConsolidatedCustomerOS.xlsx
@@ -79,13 +79,13 @@
     <t xml:space="preserve">PEEKAY AGENCIES PVT LTD                                                         </t>
   </si>
   <si>
-    <t>PA/SB/10163/2223</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
     <t>2023-05-04</t>
+  </si>
+  <si>
+    <t>PA/SB/10164/2223</t>
+  </si>
+  <si>
+    <t>Sale Bill</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,16 +501,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3">
         <v>617435</v>
